--- a/data/listaArticulos.xlsx
+++ b/data/listaArticulos.xlsx
@@ -397,13 +397,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>price</v>
+      </c>
+      <c r="C1" t="str">
+        <v>stock</v>
+      </c>
+      <c r="D1" t="str">
+        <v>code</v>
+      </c>
+      <c r="E1" t="str">
+        <v>fechaActualizacion</v>
+      </c>
+      <c r="F1" t="str">
+        <v>_id</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>biopet perro adulto 20kg</v>
+      </c>
+      <c r="B2" t="str">
+        <v>23700</v>
+      </c>
+      <c r="C2">
+        <v>44</v>
+      </c>
+      <c r="D2" t="str">
+        <v>ba1</v>
+      </c>
+      <c r="E2" t="str">
+        <v>10-09-2024</v>
+      </c>
+      <c r="F2" t="str">
+        <v>f557b6da-8ea9-465d-b92b-49921405c587</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/listaArticulos.xlsx
+++ b/data/listaArticulos.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -442,9 +442,69 @@
         <v>f557b6da-8ea9-465d-b92b-49921405c587</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Nutribon</v>
+      </c>
+      <c r="B3" t="str">
+        <v>21650</v>
+      </c>
+      <c r="C3" t="str">
+        <v>1</v>
+      </c>
+      <c r="D3" t="str">
+        <v>1</v>
+      </c>
+      <c r="E3" t="str">
+        <v>11-09-2024</v>
+      </c>
+      <c r="F3" t="str">
+        <v>7e9be339-2f4e-49cc-957f-51c4dff08625</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Dogui</v>
+      </c>
+      <c r="B4" t="str">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2</v>
+      </c>
+      <c r="E4" t="str">
+        <v>11-09-2024</v>
+      </c>
+      <c r="F4" t="str">
+        <v>f316ee6b-cd60-460f-92d4-c06fad11de57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>3</v>
+      </c>
+      <c r="B5" t="str">
+        <v>3</v>
+      </c>
+      <c r="C5" t="str">
+        <v>3</v>
+      </c>
+      <c r="D5" t="str">
+        <v>3</v>
+      </c>
+      <c r="E5" t="str">
+        <v>11-09-2024</v>
+      </c>
+      <c r="F5" t="str">
+        <v>59231638-0f99-4159-a522-9d193fdc559c</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
   </ignoredErrors>
 </worksheet>
 </file>